--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT_FILE_SAVE_LOCATION\PhanLop\QuanLyThanhVien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BCE72F-B440-4051-B822-DC64754A1967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F208BF30-F91D-42AA-B3E6-7675C3D3CC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>MaTV</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Nguyễn Văn Nam</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Ba</t>
   </si>
   <si>
     <t>Nguyễn Văn Bốn</t>
@@ -106,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,10 +525,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1125858909</v>
+        <v>1124330002</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -544,10 +542,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2147483647</v>
+        <v>1124430002</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -555,25 +553,8 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1125859810</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>123456790</v>
+      <c r="E6" s="1">
+        <v>234567909</v>
       </c>
     </row>
   </sheetData>

--- a/list.xlsx
+++ b/list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>MaTV</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>1111111113</t>
+  </si>
+  <si>
+    <t>tien123</t>
+  </si>
+  <si>
+    <t>0999888222</t>
   </si>
   <si>
     <t>Nguyễn Kiều Oanh</t>
@@ -134,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -210,7 +216,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>1.124330001E9</v>
+        <v>1.124130002E9</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>15</v>
@@ -227,61 +233,61 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>1.124330002E9</v>
+        <v>1.124330001E9</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>17</v>
       </c>
       <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>1.124430002E9</v>
+        <v>1.124330002E9</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="D7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>1.124490001E9</v>
+        <v>1.124430002E9</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>22</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>1.124500001E9</v>
+        <v>1.124490001E9</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
@@ -290,24 +296,41 @@
         <v>6</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
+        <v>1.124500001E9</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
         <v>2.147483647E9</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="B11" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>25</v>
+      <c r="C11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
